--- a/Test/MultiPSO/Explore100Exploit200/ALLCONError_175.xlsx
+++ b/Test/MultiPSO/Explore100Exploit200/ALLCONError_175.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.002251812665206533</v>
+        <v>0.0001392926902093008</v>
       </c>
       <c r="B1" t="n">
-        <v>0.00107952262574999</v>
+        <v>0.0006815995104585359</v>
       </c>
       <c r="C1" t="n">
-        <v>0.001521446820201422</v>
+        <v>0.0002683233278545306</v>
       </c>
       <c r="D1" t="n">
-        <v>0.001918652241130474</v>
+        <v>0.0007909934511921084</v>
       </c>
       <c r="E1" t="n">
-        <v>0.002290383515290575</v>
+        <v>0.0004839853696164999</v>
       </c>
       <c r="F1" t="n">
-        <v>0.0004401748959515667</v>
+        <v>0.000339097783648289</v>
       </c>
       <c r="G1" t="n">
-        <v>0.0003230288208899484</v>
+        <v>0.0005982615448576564</v>
       </c>
       <c r="H1" t="n">
-        <v>0.003277128431271054</v>
+        <v>0.001047087930882229</v>
       </c>
       <c r="I1" t="n">
-        <v>0.0008153386360905871</v>
+        <v>7.930029915846343e-05</v>
       </c>
       <c r="J1" t="n">
-        <v>0.005177420318180269</v>
+        <v>0.0007225362965638638</v>
       </c>
     </row>
   </sheetData>
